--- a/Planilha de controle.xlsx
+++ b/Planilha de controle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Martins\Documents\GitHub\My-Python-Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72AE967-03B4-45C9-BA2A-3BC415AD9977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EF6B59-6EE6-4829-8330-6DA2479E96D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{B1C0ACE3-2B5C-4993-9068-6271A6864972}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="112">
   <si>
     <t>https://www.youtube.com/watch?v=hMrPCkCqb4U</t>
   </si>
@@ -374,13 +374,16 @@
   </si>
   <si>
     <t>Pendente</t>
+  </si>
+  <si>
+    <t>Matrix</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,6 +417,14 @@
       <color theme="0"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -706,7 +717,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -822,6 +833,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,11 +841,11 @@
   <dxfs count="9">
     <dxf>
       <font>
-        <color rgb="FFC00000"/>
+        <color theme="9" tint="-0.499984740745262"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -849,11 +861,41 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="9" tint="-0.499984740745262"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -901,36 +943,6 @@
         </horizontal>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -951,11 +963,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{81E8199A-6B6D-49A6-BF0A-91D758C465BC}" name="Tabela2" displayName="Tabela2" ref="B1:D27" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{81E8199A-6B6D-49A6-BF0A-91D758C465BC}" name="Tabela2" displayName="Tabela2" ref="B1:D27" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="B1:D27" xr:uid="{81E8199A-6B6D-49A6-BF0A-91D758C465BC}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F7E9E40E-5257-4040-877D-B3BA5808D3F4}" name="Assunto" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{AD46D294-9000-4928-864D-34895BDF130F}" name="Status" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{F7E9E40E-5257-4040-877D-B3BA5808D3F4}" name="Assunto" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{AD46D294-9000-4928-864D-34895BDF130F}" name="Status" dataDxfId="6"/>
     <tableColumn id="5" xr3:uid="{55459B9C-01B9-46DD-A2AC-95249B1EE09D}" name="Fonte"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1598,13 +1610,13 @@
     <mergeCell ref="A21:A25"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C27">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Pendente">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Pendente">
       <formula>NOT(ISERROR(SEARCH("Pendente",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Feito">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Feito">
       <formula>NOT(ISERROR(SEARCH("Feito",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1618,10 +1630,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE18CA0-2F56-4887-8AE2-839F8002A857}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,7 +1644,7 @@
     <col min="4" max="4" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>48</v>
       </c>
@@ -1646,17 +1658,17 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="32"/>
       <c r="B2" s="32"/>
       <c r="C2" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="32"/>
       <c r="B3" s="32"/>
       <c r="C3" s="16" t="s">
@@ -1666,17 +1678,17 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="32"/>
       <c r="C4" s="17" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="32"/>
       <c r="B5" s="32"/>
       <c r="C5" s="18" t="s">
@@ -1686,147 +1698,148 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="32"/>
       <c r="B6" s="32"/>
       <c r="C6" s="19" t="s">
         <v>55</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="17" t="s">
         <v>56</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="17" t="s">
         <v>57</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="17" t="s">
         <v>58</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="18" t="s">
+      <c r="B10" s="37"/>
+      <c r="C10" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="34" t="s">
+      <c r="D11" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="39"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="32"/>
+      <c r="B12" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C12" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="35"/>
-      <c r="C13" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="35"/>
-      <c r="C14" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="35"/>
-      <c r="C15" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="35"/>
-      <c r="C16" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="13" t="s">
+      <c r="B17" s="35"/>
+      <c r="C17" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="32"/>
-      <c r="B18" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="9" t="s">
+      <c r="B18" s="36"/>
+      <c r="C18" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
-      <c r="B19" s="30"/>
+      <c r="B19" s="29" t="s">
+        <v>68</v>
+      </c>
       <c r="C19" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1834,9 +1847,9 @@
       <c r="A20" s="32"/>
       <c r="B20" s="30"/>
       <c r="C20" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1844,97 +1857,97 @@
       <c r="A21" s="32"/>
       <c r="B21" s="30"/>
       <c r="C21" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="30"/>
       <c r="C22" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="30"/>
       <c r="C23" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="30"/>
       <c r="C24" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="37"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+      <c r="D25" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B26" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C26" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="16" t="s">
+      <c r="D26" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="30"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="7" t="s">
+      <c r="D27" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="31"/>
+      <c r="B28" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C28" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
+      <c r="D28" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B29" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C29" s="16" t="s">
         <v>69</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="16" t="s">
-        <v>84</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>110</v>
@@ -1944,7 +1957,7 @@
       <c r="A30" s="27"/>
       <c r="B30" s="27"/>
       <c r="C30" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>110</v>
@@ -1954,9 +1967,9 @@
       <c r="A31" s="27"/>
       <c r="B31" s="27"/>
       <c r="C31" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1964,9 +1977,9 @@
       <c r="A32" s="27"/>
       <c r="B32" s="27"/>
       <c r="C32" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1974,7 +1987,7 @@
       <c r="A33" s="27"/>
       <c r="B33" s="27"/>
       <c r="C33" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>110</v>
@@ -1984,7 +1997,7 @@
       <c r="A34" s="27"/>
       <c r="B34" s="27"/>
       <c r="C34" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>110</v>
@@ -1994,7 +2007,7 @@
       <c r="A35" s="27"/>
       <c r="B35" s="27"/>
       <c r="C35" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>110</v>
@@ -2004,7 +2017,7 @@
       <c r="A36" s="27"/>
       <c r="B36" s="27"/>
       <c r="C36" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>110</v>
@@ -2014,7 +2027,7 @@
       <c r="A37" s="27"/>
       <c r="B37" s="27"/>
       <c r="C37" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>110</v>
@@ -2024,7 +2037,7 @@
       <c r="A38" s="27"/>
       <c r="B38" s="27"/>
       <c r="C38" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>110</v>
@@ -2032,31 +2045,31 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="27"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" s="11" t="s">
+      <c r="B39" s="27"/>
+      <c r="C39" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
-      <c r="B40" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D40" s="9" t="s">
+      <c r="B40" s="28"/>
+      <c r="C40" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
+      <c r="B41" s="26" t="s">
+        <v>100</v>
+      </c>
       <c r="C41" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>110</v>
@@ -2066,7 +2079,7 @@
       <c r="A42" s="27"/>
       <c r="B42" s="27"/>
       <c r="C42" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>110</v>
@@ -2076,41 +2089,41 @@
       <c r="A43" s="27"/>
       <c r="B43" s="27"/>
       <c r="C43" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D43" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D44" s="9" t="s">
+      <c r="B44" s="27"/>
+      <c r="C44" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="27"/>
-      <c r="B45" s="29" t="s">
-        <v>107</v>
-      </c>
+      <c r="B45" s="28"/>
       <c r="C45" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D45" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="27"/>
-      <c r="B46" s="30"/>
+      <c r="B46" s="29" t="s">
+        <v>107</v>
+      </c>
       <c r="C46" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D46" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" s="12" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2118,7 +2131,7 @@
       <c r="A47" s="27"/>
       <c r="B47" s="30"/>
       <c r="C47" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>110</v>
@@ -2128,9 +2141,9 @@
       <c r="A48" s="27"/>
       <c r="B48" s="30"/>
       <c r="C48" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D48" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2138,47 +2151,57 @@
       <c r="A49" s="27"/>
       <c r="B49" s="30"/>
       <c r="C49" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="27"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="15" t="s">
+      <c r="D50" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="28"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D50" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="8"/>
+      <c r="D51" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B28:B39"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="A28:A50"/>
-    <mergeCell ref="B1:B10"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="A1:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B29:B40"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="A29:A51"/>
+    <mergeCell ref="B1:B11"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="A1:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B27"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Feito">
-      <formula>NOT(ISERROR(SEARCH("Feito",D1)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Pendente">
+      <formula>NOT(ISERROR(SEARCH("Pendente",D1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Pendente">
-      <formula>NOT(ISERROR(SEARCH("Pendente",D1)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Feito">
+      <formula>NOT(ISERROR(SEARCH("Feito",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Planilha de controle.xlsx
+++ b/Planilha de controle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Martins\Documents\GitHub\My-Python-Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EF6B59-6EE6-4829-8330-6DA2479E96D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3604B675-F5B6-4E0F-8342-C703DEF96C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{B1C0ACE3-2B5C-4993-9068-6271A6864972}"/>
   </bookViews>
@@ -19,6 +19,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Python!$A$1:$A$27</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Python2!$G$19</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Python2!$H$19</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Python2!$G$19</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Python2!$G$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="111">
   <si>
     <t>https://www.youtube.com/watch?v=hMrPCkCqb4U</t>
   </si>
@@ -374,9 +378,6 @@
   </si>
   <si>
     <t>Pendente</t>
-  </si>
-  <si>
-    <t>Matrix</t>
   </si>
 </sst>
 </file>
@@ -717,7 +718,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -791,6 +792,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -815,6 +817,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -827,13 +832,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1351,7 +1353,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1362,7 +1364,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1371,7 +1373,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1380,7 +1382,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1389,7 +1391,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1400,7 +1402,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1409,7 +1411,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1418,7 +1420,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="26" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1429,7 +1431,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1438,7 +1440,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
@@ -1447,7 +1449,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
@@ -1456,7 +1458,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="26" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1467,7 +1469,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
@@ -1476,7 +1478,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="4" t="s">
         <v>21</v>
       </c>
@@ -1485,7 +1487,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="26" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1496,7 +1498,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="4" t="s">
         <v>23</v>
       </c>
@@ -1505,7 +1507,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
@@ -1514,7 +1516,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="4" t="s">
         <v>25</v>
       </c>
@@ -1523,7 +1525,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="4" t="s">
         <v>26</v>
       </c>
@@ -1532,7 +1534,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="26" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1543,7 +1545,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="4" t="s">
         <v>28</v>
       </c>
@@ -1552,7 +1554,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="4" t="s">
         <v>29</v>
       </c>
@@ -1561,7 +1563,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="4" t="s">
         <v>30</v>
       </c>
@@ -1570,7 +1572,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="4" t="s">
         <v>31</v>
       </c>
@@ -1579,7 +1581,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="26" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -1590,7 +1592,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="4" t="s">
         <v>33</v>
       </c>
@@ -1630,10 +1632,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE18CA0-2F56-4887-8AE2-839F8002A857}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1642,13 +1644,14 @@
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.85546875" style="24" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>49</v>
       </c>
       <c r="C1" s="14" t="s">
@@ -1658,9 +1661,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="15" t="s">
         <v>51</v>
       </c>
@@ -1668,9 +1671,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="16" t="s">
         <v>52</v>
       </c>
@@ -1678,9 +1681,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="17" t="s">
         <v>53</v>
       </c>
@@ -1688,9 +1691,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="18" t="s">
         <v>54</v>
       </c>
@@ -1698,9 +1701,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="19" t="s">
         <v>55</v>
       </c>
@@ -1708,9 +1711,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="17" t="s">
         <v>56</v>
       </c>
@@ -1718,9 +1721,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="17" t="s">
         <v>57</v>
       </c>
@@ -1728,9 +1731,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="17" t="s">
         <v>58</v>
       </c>
@@ -1738,460 +1741,455 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="10" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="33"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
+      <c r="B11" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" s="39"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="15" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="21" t="s">
+      <c r="D12" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="15" t="s">
+      <c r="D13" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="33"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="22" t="s">
+      <c r="D14" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="33"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="20" t="s">
+      <c r="D15" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="33"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="23" t="s">
+      <c r="D16" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="40"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="33"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="29" t="s">
+      <c r="D17" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="40"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="33"/>
+      <c r="B18" s="30" t="s">
         <v>68</v>
       </c>
+      <c r="C18" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" s="40"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="33"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" s="40"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="33"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="33"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="33"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="33"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="34"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="31"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+      <c r="B27" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>80</v>
-      </c>
       <c r="D28" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>83</v>
-      </c>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="16" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
+        <v>86</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" s="9" t="s">
+      <c r="A39" s="28"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="11" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" s="11" t="s">
+      <c r="A40" s="28"/>
+      <c r="B40" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="26" t="s">
-        <v>100</v>
-      </c>
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
       <c r="C41" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
       <c r="C43" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D43" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D44" s="11" t="s">
+      <c r="A44" s="28"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="27"/>
-      <c r="B45" s="28"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="30" t="s">
+        <v>107</v>
+      </c>
       <c r="C45" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D45" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" s="12" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="27"/>
-      <c r="B46" s="29" t="s">
-        <v>107</v>
-      </c>
+      <c r="A46" s="28"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D46" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
-      <c r="B47" s="30"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
-      <c r="B48" s="30"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D48" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="27"/>
-      <c r="B49" s="30"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D49" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
-      <c r="B50" s="30"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="32"/>
       <c r="C50" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D50" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="12" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="8"/>
+      <c r="B51" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B29:B40"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="A29:A51"/>
-    <mergeCell ref="B1:B11"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="A1:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B39"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="A28:A50"/>
+    <mergeCell ref="B1:B10"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="A1:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B26"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Pendente">

--- a/Planilha de controle.xlsx
+++ b/Planilha de controle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Martins\Documents\GitHub\My-Python-Progress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiobe\Documents\GitHub\My-Python-Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3604B675-F5B6-4E0F-8342-C703DEF96C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1A5683-9423-449F-B80B-609CB535D8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{B1C0ACE3-2B5C-4993-9068-6271A6864972}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{B1C0ACE3-2B5C-4993-9068-6271A6864972}"/>
   </bookViews>
   <sheets>
     <sheet name="Gamer Enginner" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Python!$A$1:$A$27</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Python2!$G$19</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Python2!$H$19</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Python2!$G$19</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Python2!$G$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="109">
   <si>
     <t>https://www.youtube.com/watch?v=hMrPCkCqb4U</t>
   </si>
@@ -182,9 +178,6 @@
     <t>FEITO</t>
   </si>
   <si>
-    <t>EM ANDAMENTO</t>
-  </si>
-  <si>
     <t>PENDENTE</t>
   </si>
   <si>
@@ -372,9 +365,6 @@
   </si>
   <si>
     <t>Feito</t>
-  </si>
-  <si>
-    <t>Em andamento</t>
   </si>
   <si>
     <t>Pendente</t>
@@ -384,7 +374,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,6 +416,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -718,7 +714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -793,6 +789,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -817,25 +814,27 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1326,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69FE17B-B78B-4517-A9A6-92C25ED44B86}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,11 +1348,11 @@
         <v>43</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1364,240 +1363,240 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="27" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="27" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="27" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="41" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="27" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1634,8 +1633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE18CA0-2F56-4887-8AE2-839F8002A857}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1648,531 +1647,531 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="C1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="15" t="s">
+      <c r="D2" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="17" t="s">
+      <c r="D4" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="19" t="s">
+      <c r="D6" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="17" t="s">
+      <c r="D7" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="17" t="s">
+      <c r="D8" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="17" t="s">
-        <v>58</v>
-      </c>
       <c r="D9" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="35"/>
       <c r="C10" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="34"/>
+      <c r="B11" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="25"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="36" t="s">
+      <c r="C11" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>61</v>
-      </c>
       <c r="D11" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="37"/>
       <c r="C12" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="37"/>
       <c r="C13" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="37"/>
       <c r="C14" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="37"/>
       <c r="C15" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="37"/>
       <c r="C16" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="H16" s="40"/>
+        <v>107</v>
+      </c>
+      <c r="H16" s="26"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="38"/>
       <c r="C17" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="26"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
+      <c r="B18" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="H17" s="40"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="30" t="s">
+      <c r="C18" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="D18" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="26"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="34"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="H18" s="40"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="15" t="s">
+      <c r="D19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="26"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="34"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="H19" s="40"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="15" t="s">
+      <c r="D20" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="26"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="34"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" s="40"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="15" t="s">
+      <c r="D21" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="34"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="15" t="s">
+      <c r="D22" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="34"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="15" t="s">
+      <c r="D23" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="39"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="15" t="s">
+      <c r="D24" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+      <c r="B25" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="C25" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="D25" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="16" t="s">
+      <c r="D26" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="33"/>
+      <c r="B27" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="7" t="s">
+      <c r="D27" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
+      <c r="B28" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="C28" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="16" t="s">
+      <c r="D29" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="16" t="s">
+      <c r="D30" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="16" t="s">
+      <c r="D31" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="16" t="s">
+      <c r="D32" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="16" t="s">
+      <c r="D33" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="16" t="s">
+      <c r="D34" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="16" t="s">
+      <c r="D35" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="16" t="s">
+      <c r="D36" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="16" t="s">
+      <c r="D37" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="16" t="s">
+      <c r="D38" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="29"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="15" t="s">
+      <c r="D39" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="29"/>
+      <c r="B40" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D39" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="27" t="s">
+      <c r="D40" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="29"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="29"/>
+      <c r="B45" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
-      <c r="B45" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" s="15" t="s">
+      <c r="D45" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="29"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D45" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="15" t="s">
+      <c r="D46" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="29"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="15" t="s">
+      <c r="D47" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="29"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="15" t="s">
+      <c r="D48" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="29"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D48" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="15" t="s">
+      <c r="D49" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="30"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="15" t="s">
-        <v>106</v>
-      </c>
       <c r="D50" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">

--- a/Planilha de controle.xlsx
+++ b/Planilha de controle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiobe\Documents\GitHub\My-Python-Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1A5683-9423-449F-B80B-609CB535D8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2ED483-95FE-4579-AC24-A02FAD098FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{B1C0ACE3-2B5C-4993-9068-6271A6864972}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{B1C0ACE3-2B5C-4993-9068-6271A6864972}"/>
   </bookViews>
   <sheets>
     <sheet name="Gamer Enginner" sheetId="1" r:id="rId1"/>
@@ -714,7 +714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -790,6 +790,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -832,8 +835,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1278,13 +1281,13 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1292,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1300,7 +1303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1308,7 +1311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1325,19 +1328,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69FE17B-B78B-4517-A9A6-92C25ED44B86}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="143.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="92.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="143.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="92.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>41</v>
       </c>
@@ -1351,8 +1354,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1362,8 +1365,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
+    <row r="3" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="28"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1371,8 +1374,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
+    <row r="4" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="28"/>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1380,8 +1383,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+    <row r="5" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="28"/>
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1389,8 +1392,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1400,8 +1403,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
+    <row r="7" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="28"/>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1409,8 +1412,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
+    <row r="8" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="28"/>
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1418,8 +1421,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1429,8 +1432,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
+    <row r="10" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="28"/>
       <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1438,8 +1441,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
+    <row r="11" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="28"/>
       <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
@@ -1447,8 +1450,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
+    <row r="12" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="28"/>
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
@@ -1456,8 +1459,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+    <row r="13" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1467,8 +1470,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
+    <row r="14" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="28"/>
       <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
@@ -1476,8 +1479,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
+    <row r="15" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="28"/>
       <c r="B15" s="4" t="s">
         <v>21</v>
       </c>
@@ -1485,8 +1488,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+    <row r="16" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1496,8 +1499,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
+    <row r="17" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="28"/>
       <c r="B17" s="4" t="s">
         <v>23</v>
       </c>
@@ -1505,8 +1508,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
+    <row r="18" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="28"/>
       <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
@@ -1514,8 +1517,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
+    <row r="19" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="28"/>
       <c r="B19" s="4" t="s">
         <v>25</v>
       </c>
@@ -1523,8 +1526,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
+    <row r="20" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="28"/>
       <c r="B20" s="4" t="s">
         <v>26</v>
       </c>
@@ -1532,19 +1535,19 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+    <row r="21" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="27" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
+    <row r="22" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="28"/>
       <c r="B22" s="4" t="s">
         <v>28</v>
       </c>
@@ -1552,8 +1555,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
+    <row r="23" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="28"/>
       <c r="B23" s="4" t="s">
         <v>29</v>
       </c>
@@ -1561,8 +1564,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
+    <row r="24" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="28"/>
       <c r="B24" s="4" t="s">
         <v>30</v>
       </c>
@@ -1570,8 +1573,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
+    <row r="25" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="28"/>
       <c r="B25" s="4" t="s">
         <v>31</v>
       </c>
@@ -1579,8 +1582,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+    <row r="26" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="28" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -1590,8 +1593,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
+    <row r="27" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="28"/>
       <c r="B27" s="4" t="s">
         <v>33</v>
       </c>
@@ -1633,24 +1636,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE18CA0-2F56-4887-8AE2-839F8002A857}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" style="24" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.88671875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>48</v>
       </c>
       <c r="C1" s="14" t="s">
@@ -1660,19 +1663,19 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="15" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="42" t="s">
         <v>50</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="16" t="s">
         <v>51</v>
       </c>
@@ -1680,19 +1683,19 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="17" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="18" t="s">
         <v>53</v>
       </c>
@@ -1700,9 +1703,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="19" t="s">
         <v>54</v>
       </c>
@@ -1710,9 +1713,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="17" t="s">
         <v>55</v>
       </c>
@@ -1720,9 +1723,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="17" t="s">
         <v>56</v>
       </c>
@@ -1730,9 +1733,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="17" t="s">
         <v>57</v>
       </c>
@@ -1740,20 +1743,20 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="35"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="18" t="s">
         <v>58</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E10" s="25"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="36" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="35"/>
+      <c r="B11" s="37" t="s">
         <v>59</v>
       </c>
       <c r="C11" s="20" t="s">
@@ -1763,9 +1766,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="37"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="35"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="15" t="s">
         <v>61</v>
       </c>
@@ -1773,39 +1776,39 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="37"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="35"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="21" t="s">
         <v>62</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="37"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="35"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="15" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="37"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="35"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="22" t="s">
         <v>64</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="37"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="35"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="20" t="s">
         <v>65</v>
       </c>
@@ -1814,20 +1817,20 @@
       </c>
       <c r="H16" s="26"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="38"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="35"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="23" t="s">
         <v>66</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H17" s="26"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="31" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="35"/>
+      <c r="B18" s="32" t="s">
         <v>67</v>
       </c>
       <c r="C18" s="15" t="s">
@@ -1838,9 +1841,9 @@
       </c>
       <c r="H18" s="26"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="32"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="35"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="15" t="s">
         <v>69</v>
       </c>
@@ -1849,9 +1852,9 @@
       </c>
       <c r="H19" s="26"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="32"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="35"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="15" t="s">
         <v>70</v>
       </c>
@@ -1860,9 +1863,9 @@
       </c>
       <c r="G20" s="26"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="32"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="35"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="15" t="s">
         <v>71</v>
       </c>
@@ -1870,9 +1873,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="32"/>
+    <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="35"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="15" t="s">
         <v>72</v>
       </c>
@@ -1880,9 +1883,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="32"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="35"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="15" t="s">
         <v>73</v>
       </c>
@@ -1890,9 +1893,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
-      <c r="B24" s="32"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="40"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="15" t="s">
         <v>74</v>
       </c>
@@ -1900,11 +1903,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="41" t="s">
         <v>76</v>
       </c>
       <c r="C25" s="15" t="s">
@@ -1914,9 +1917,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="39"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="33"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="16" t="s">
         <v>78</v>
       </c>
@@ -1924,8 +1927,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="34"/>
       <c r="B27" s="7" t="s">
         <v>80</v>
       </c>
@@ -1936,11 +1939,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="29" t="s">
         <v>82</v>
       </c>
       <c r="C28" s="16" t="s">
@@ -1950,9 +1953,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="16" t="s">
         <v>83</v>
       </c>
@@ -1960,9 +1963,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="16" t="s">
         <v>84</v>
       </c>
@@ -1970,9 +1973,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="16" t="s">
         <v>85</v>
       </c>
@@ -1980,9 +1983,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="16" t="s">
         <v>86</v>
       </c>
@@ -1990,9 +1993,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="16" t="s">
         <v>87</v>
       </c>
@@ -2000,9 +2003,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="16" t="s">
         <v>88</v>
       </c>
@@ -2010,9 +2013,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="16" t="s">
         <v>89</v>
       </c>
@@ -2020,9 +2023,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="16" t="s">
         <v>90</v>
       </c>
@@ -2030,9 +2033,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="30"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="16" t="s">
         <v>91</v>
       </c>
@@ -2040,9 +2043,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="30"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="16" t="s">
         <v>92</v>
       </c>
@@ -2050,9 +2053,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="30"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="30"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="15" t="s">
         <v>93</v>
       </c>
@@ -2060,9 +2063,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="28" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="30"/>
+      <c r="B40" s="29" t="s">
         <v>99</v>
       </c>
       <c r="C40" s="16" t="s">
@@ -2072,9 +2075,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="30"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="16" t="s">
         <v>95</v>
       </c>
@@ -2082,9 +2085,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="16" t="s">
         <v>96</v>
       </c>
@@ -2092,9 +2095,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
       <c r="C43" s="16" t="s">
         <v>97</v>
       </c>
@@ -2102,9 +2105,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
-      <c r="B44" s="30"/>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="30"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="15" t="s">
         <v>98</v>
       </c>
@@ -2112,9 +2115,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
-      <c r="B45" s="31" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="30"/>
+      <c r="B45" s="32" t="s">
         <v>106</v>
       </c>
       <c r="C45" s="15" t="s">
@@ -2124,9 +2127,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
-      <c r="B46" s="32"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="30"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="15" t="s">
         <v>101</v>
       </c>
@@ -2134,9 +2137,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
-      <c r="B47" s="32"/>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="30"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="15" t="s">
         <v>102</v>
       </c>
@@ -2144,9 +2147,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
-      <c r="B48" s="32"/>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="30"/>
+      <c r="B48" s="33"/>
       <c r="C48" s="15" t="s">
         <v>103</v>
       </c>
@@ -2154,9 +2157,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
-      <c r="B49" s="32"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="30"/>
+      <c r="B49" s="33"/>
       <c r="C49" s="15" t="s">
         <v>104</v>
       </c>
@@ -2164,9 +2167,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
-      <c r="B50" s="33"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="31"/>
+      <c r="B50" s="34"/>
       <c r="C50" s="15" t="s">
         <v>105</v>
       </c>
@@ -2174,7 +2177,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51" s="8"/>
     </row>
   </sheetData>

--- a/Planilha de controle.xlsx
+++ b/Planilha de controle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiobe\Documents\GitHub\My-Python-Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2ED483-95FE-4579-AC24-A02FAD098FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F64153-825F-4F1B-9EF3-234FF5B6265F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{B1C0ACE3-2B5C-4993-9068-6271A6864972}"/>
   </bookViews>
@@ -793,6 +793,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -834,9 +837,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1355,7 +1355,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1366,7 +1366,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1375,7 +1375,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1384,7 +1384,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1393,7 +1393,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="29" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1404,7 +1404,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1413,7 +1413,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1422,7 +1422,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="29" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1433,7 +1433,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1442,7 +1442,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
@@ -1451,7 +1451,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
@@ -1460,7 +1460,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="29" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1471,7 +1471,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
@@ -1480,7 +1480,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="4" t="s">
         <v>21</v>
       </c>
@@ -1489,7 +1489,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="29" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1500,7 +1500,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="4" t="s">
         <v>23</v>
       </c>
@@ -1509,7 +1509,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
@@ -1518,7 +1518,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="4" t="s">
         <v>25</v>
       </c>
@@ -1527,7 +1527,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="4" t="s">
         <v>26</v>
       </c>
@@ -1536,7 +1536,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="29" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -1547,7 +1547,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="4" t="s">
         <v>28</v>
       </c>
@@ -1556,7 +1556,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="4" t="s">
         <v>29</v>
       </c>
@@ -1565,7 +1565,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="4" t="s">
         <v>30</v>
       </c>
@@ -1574,7 +1574,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="4" t="s">
         <v>31</v>
       </c>
@@ -1583,7 +1583,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="29" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -1594,7 +1594,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="4" t="s">
         <v>33</v>
       </c>
@@ -1636,8 +1636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE18CA0-2F56-4887-8AE2-839F8002A857}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1650,10 +1650,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>48</v>
       </c>
       <c r="C1" s="14" t="s">
@@ -1664,9 +1664,9 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="42" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="28" t="s">
         <v>50</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -1674,8 +1674,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="16" t="s">
         <v>51</v>
       </c>
@@ -1684,8 +1684,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="17" t="s">
         <v>52</v>
       </c>
@@ -1694,8 +1694,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="18" t="s">
         <v>53</v>
       </c>
@@ -1704,8 +1704,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="19" t="s">
         <v>54</v>
       </c>
@@ -1714,8 +1714,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="17" t="s">
         <v>55</v>
       </c>
@@ -1724,8 +1724,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="17" t="s">
         <v>56</v>
       </c>
@@ -1734,8 +1734,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="17" t="s">
         <v>57</v>
       </c>
@@ -1744,8 +1744,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="18" t="s">
         <v>58</v>
       </c>
@@ -1755,8 +1755,8 @@
       <c r="E10" s="25"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
-      <c r="B11" s="37" t="s">
+      <c r="A11" s="36"/>
+      <c r="B11" s="38" t="s">
         <v>59</v>
       </c>
       <c r="C11" s="20" t="s">
@@ -1767,8 +1767,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
-      <c r="B12" s="38"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="15" t="s">
         <v>61</v>
       </c>
@@ -1777,8 +1777,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
-      <c r="B13" s="38"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="21" t="s">
         <v>62</v>
       </c>
@@ -1787,8 +1787,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
-      <c r="B14" s="38"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="15" t="s">
         <v>63</v>
       </c>
@@ -1797,8 +1797,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
-      <c r="B15" s="38"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="22" t="s">
         <v>64</v>
       </c>
@@ -1807,8 +1807,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="38"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="20" t="s">
         <v>65</v>
       </c>
@@ -1818,8 +1818,8 @@
       <c r="H16" s="26"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
-      <c r="B17" s="39"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="23" t="s">
         <v>66</v>
       </c>
@@ -1829,8 +1829,8 @@
       <c r="H17" s="26"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="32" t="s">
+      <c r="A18" s="36"/>
+      <c r="B18" s="33" t="s">
         <v>67</v>
       </c>
       <c r="C18" s="15" t="s">
@@ -1842,8 +1842,8 @@
       <c r="H18" s="26"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="33"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="15" t="s">
         <v>69</v>
       </c>
@@ -1853,8 +1853,8 @@
       <c r="H19" s="26"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
-      <c r="B20" s="33"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="15" t="s">
         <v>70</v>
       </c>
@@ -1864,8 +1864,8 @@
       <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
-      <c r="B21" s="33"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="15" t="s">
         <v>71</v>
       </c>
@@ -1874,8 +1874,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
-      <c r="B22" s="33"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="15" t="s">
         <v>72</v>
       </c>
@@ -1884,8 +1884,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="35"/>
-      <c r="B23" s="33"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="15" t="s">
         <v>73</v>
       </c>
@@ -1894,8 +1894,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
-      <c r="B24" s="33"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="15" t="s">
         <v>74</v>
       </c>
@@ -1904,10 +1904,10 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="42" t="s">
         <v>76</v>
       </c>
       <c r="C25" s="15" t="s">
@@ -1918,8 +1918,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="33"/>
-      <c r="B26" s="40"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="16" t="s">
         <v>78</v>
       </c>
@@ -1928,7 +1928,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="34"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="7" t="s">
         <v>80</v>
       </c>
@@ -1940,10 +1940,10 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="30" t="s">
         <v>82</v>
       </c>
       <c r="C28" s="16" t="s">
@@ -1954,8 +1954,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="16" t="s">
         <v>83</v>
       </c>
@@ -1964,8 +1964,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="16" t="s">
         <v>84</v>
       </c>
@@ -1974,8 +1974,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="16" t="s">
         <v>85</v>
       </c>
@@ -1984,8 +1984,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="16" t="s">
         <v>86</v>
       </c>
@@ -1994,8 +1994,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="16" t="s">
         <v>87</v>
       </c>
@@ -2004,8 +2004,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="16" t="s">
         <v>88</v>
       </c>
@@ -2014,8 +2014,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="16" t="s">
         <v>89</v>
       </c>
@@ -2024,8 +2024,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="16" t="s">
         <v>90</v>
       </c>
@@ -2034,8 +2034,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="16" t="s">
         <v>91</v>
       </c>
@@ -2044,8 +2044,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="16" t="s">
         <v>92</v>
       </c>
@@ -2054,8 +2054,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="30"/>
-      <c r="B39" s="31"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="15" t="s">
         <v>93</v>
       </c>
@@ -2064,8 +2064,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="30"/>
-      <c r="B40" s="29" t="s">
+      <c r="A40" s="31"/>
+      <c r="B40" s="30" t="s">
         <v>99</v>
       </c>
       <c r="C40" s="16" t="s">
@@ -2076,8 +2076,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="16" t="s">
         <v>95</v>
       </c>
@@ -2086,8 +2086,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="16" t="s">
         <v>96</v>
       </c>
@@ -2096,8 +2096,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="16" t="s">
         <v>97</v>
       </c>
@@ -2106,8 +2106,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="30"/>
-      <c r="B44" s="31"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="15" t="s">
         <v>98</v>
       </c>
@@ -2116,8 +2116,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="30"/>
-      <c r="B45" s="32" t="s">
+      <c r="A45" s="31"/>
+      <c r="B45" s="33" t="s">
         <v>106</v>
       </c>
       <c r="C45" s="15" t="s">
@@ -2128,8 +2128,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="30"/>
-      <c r="B46" s="33"/>
+      <c r="A46" s="31"/>
+      <c r="B46" s="34"/>
       <c r="C46" s="15" t="s">
         <v>101</v>
       </c>
@@ -2138,8 +2138,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="30"/>
-      <c r="B47" s="33"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="34"/>
       <c r="C47" s="15" t="s">
         <v>102</v>
       </c>
@@ -2148,8 +2148,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="30"/>
-      <c r="B48" s="33"/>
+      <c r="A48" s="31"/>
+      <c r="B48" s="34"/>
       <c r="C48" s="15" t="s">
         <v>103</v>
       </c>
@@ -2158,8 +2158,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="30"/>
-      <c r="B49" s="33"/>
+      <c r="A49" s="31"/>
+      <c r="B49" s="34"/>
       <c r="C49" s="15" t="s">
         <v>104</v>
       </c>
@@ -2168,8 +2168,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="31"/>
-      <c r="B50" s="34"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="35"/>
       <c r="C50" s="15" t="s">
         <v>105</v>
       </c>
